--- a/biology/Biochimie/Roténoïde/Roténoïde.xlsx
+++ b/biology/Biochimie/Roténoïde/Roténoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rot%C3%A9no%C3%AFde</t>
+          <t>Roténoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les roténoïdes sont des substances naturelles contenant un noyau de tétrahydrochroméno [3,4-b] chromène à jonction cis-[1]. Beaucoup de ces molécules ont une activité insecticide, comme le membre typique de la famille, la roténone. Les roténoïdes sont apparentés aux isoflavones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les roténoïdes sont des substances naturelles contenant un noyau de tétrahydrochroméno [3,4-b] chromène à jonction cis-. Beaucoup de ces molécules ont une activité insecticide, comme le membre typique de la famille, la roténone. Les roténoïdes sont apparentés aux isoflavones.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rot%C3%A9no%C3%AFde</t>
+          <t>Roténoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Sources naturelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses espèces de plantes de la sous-famille des Faboideae (famille des Fabaceae) contiennent des roténoïdes. On en trouve notamment dans le genre Lonchocarpus. la dégueline et la téphrosine sont présentes chez l'espèce Tephrosia vogelii[2].
-Le 6'-O-β-D-glucopyranosyl-12a-hydroxydalpanol se trouve dans les fruits d’Amorpha fruticosa[3].
-Les molécules suivantes : elliptol, 12-deoxo-12alpha-méthoxyelliptone, 6-méthoxy-6a,12a-déhydrodégueline, 6a,12a-déhydrodégueline, 6-hydroxy-6a,12a-déhydrodégueline, 6-oxo-6a,12a-déhydrodégueline et 12a-hydroxyelliptone peuvent être isolées des rameaux de Millettia duchesnei[4].
-La dégueline, la déhydrodégueline, le roténol, le roténone, la téphrosine et le sumatrol se trouvent chez Indigofera tinctoria[5]. La 6aα,12aα-12a-hydroxyelliptone est présente dans les tiges de Derris trifoliata[6].
-L'amorphol, roténoïde bioside, peut être isolé de plantes du genre Amorpha[7].
-La dégueline, la roténone, l'elliptone et l'α-toxicarol se trouvent dans les graines de Lonchocarpus salvadorensis[8].
-Le clitoriacétal, la stémonacétal, le 6-déoxyclitoriacétal, le 11-déoxyclitoriacétal, le 9-déméthylclitoriacétal et le stémonal peuvent être isolés des plants de Clitoria fairchildiana[9].
-On peut aussi trouver des rotenoïdes dans des espèces de plantes de la famille des Nyctaginaceae. Les mirabijalones A, B, C et D, la 9-O-méthyl-4-hydroxyboeravinone B, les boeravinone C et F, et le 1,2,3,4-tétrahydro-1-méthylisoquinoline-7,8-diol) peuvent être isolés des racines de Mirabilis jalapa[10]. 
-Les boeravinones G et H sont deux roténoïdes isolés dans des plants de Boerhavia diffusa[11].
-L'abronione et la boeravinone C sont présentes dans une espèce annuelle des zones désertiques, Abronia villosa[12].
-En 2015, un nouveau roténoïde, la crocéténone, a été extrait du rhizome d’Iris crocea[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces de plantes de la sous-famille des Faboideae (famille des Fabaceae) contiennent des roténoïdes. On en trouve notamment dans le genre Lonchocarpus. la dégueline et la téphrosine sont présentes chez l'espèce Tephrosia vogelii.
+Le 6'-O-β-D-glucopyranosyl-12a-hydroxydalpanol se trouve dans les fruits d’Amorpha fruticosa.
+Les molécules suivantes : elliptol, 12-deoxo-12alpha-méthoxyelliptone, 6-méthoxy-6a,12a-déhydrodégueline, 6a,12a-déhydrodégueline, 6-hydroxy-6a,12a-déhydrodégueline, 6-oxo-6a,12a-déhydrodégueline et 12a-hydroxyelliptone peuvent être isolées des rameaux de Millettia duchesnei.
+La dégueline, la déhydrodégueline, le roténol, le roténone, la téphrosine et le sumatrol se trouvent chez Indigofera tinctoria. La 6aα,12aα-12a-hydroxyelliptone est présente dans les tiges de Derris trifoliata.
+L'amorphol, roténoïde bioside, peut être isolé de plantes du genre Amorpha.
+La dégueline, la roténone, l'elliptone et l'α-toxicarol se trouvent dans les graines de Lonchocarpus salvadorensis.
+Le clitoriacétal, la stémonacétal, le 6-déoxyclitoriacétal, le 11-déoxyclitoriacétal, le 9-déméthylclitoriacétal et le stémonal peuvent être isolés des plants de Clitoria fairchildiana.
+On peut aussi trouver des rotenoïdes dans des espèces de plantes de la famille des Nyctaginaceae. Les mirabijalones A, B, C et D, la 9-O-méthyl-4-hydroxyboeravinone B, les boeravinone C et F, et le 1,2,3,4-tétrahydro-1-méthylisoquinoline-7,8-diol) peuvent être isolés des racines de Mirabilis jalapa. 
+Les boeravinones G et H sont deux roténoïdes isolés dans des plants de Boerhavia diffusa.
+L'abronione et la boeravinone C sont présentes dans une espèce annuelle des zones désertiques, Abronia villosa.
+En 2015, un nouveau roténoïde, la crocéténone, a été extrait du rhizome d’Iris crocea.
 </t>
         </is>
       </c>
